--- a/xlsx/行政部门_intext.xlsx
+++ b/xlsx/行政部门_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
   <si>
     <t>行政部门</t>
   </si>
@@ -29,13 +29,13 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_美國_行政部门</t>
+    <t>政策_政策_美国_行政部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>酋長</t>
+    <t>酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%BB%E6%95%99</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
@@ -431,9 +431,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
@@ -455,13 +452,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -485,67 +479,61 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>部長</t>
+    <t>部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E4%BD%8D%E5%85%83%E9%A6%96</t>
@@ -557,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -575,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>總督</t>
+    <t>总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -599,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>英國君主</t>
+    <t>英国君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -623,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -635,37 +623,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
+    <t>朝鲜民主主义人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -677,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%81%AF%E9%82%A6%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞士聯邦委員會</t>
+    <t>瑞士联邦委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -731,37 +716,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>五權分立</t>
+    <t>五权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%A9%A6</t>
   </si>
   <si>
-    <t>考試</t>
+    <t>考试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%A9%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>考試院</t>
+    <t>考试院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F</t>
   </si>
   <si>
-    <t>監察</t>
+    <t>监察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E9%99%A2</t>
   </si>
   <si>
-    <t>監察院</t>
+    <t>监察院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
@@ -785,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -797,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
@@ -3149,7 +3131,7 @@
         <v>137</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G69" t="n">
         <v>15</v>
@@ -3175,10 +3157,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3204,10 +3186,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>56</v>
@@ -3233,10 +3215,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -3262,10 +3244,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3291,10 +3273,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3320,10 +3302,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3349,10 +3331,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3378,10 +3360,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3407,10 +3389,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3436,10 +3418,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3465,10 +3447,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>10</v>
@@ -3494,10 +3476,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3523,10 +3505,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3552,10 +3534,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -3581,10 +3563,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3610,10 +3592,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3639,10 +3621,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3668,10 +3650,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3697,10 +3679,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3726,10 +3708,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3755,10 +3737,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3784,10 +3766,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3813,10 +3795,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3842,10 +3824,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3871,10 +3853,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3900,10 +3882,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3929,10 +3911,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3958,10 +3940,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3987,10 +3969,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4016,10 +3998,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4045,10 +4027,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4074,10 +4056,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4103,10 +4085,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4132,10 +4114,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4161,10 +4143,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4190,10 +4172,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4219,10 +4201,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4248,10 +4230,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4277,10 +4259,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4306,10 +4288,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4364,10 +4346,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4393,10 +4375,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4422,10 +4404,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4451,10 +4433,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>17</v>
@@ -4480,10 +4462,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4509,10 +4491,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4538,10 +4520,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4567,10 +4549,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4596,10 +4578,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4625,10 +4607,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4683,10 +4665,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4712,10 +4694,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4741,10 +4723,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4770,10 +4752,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4799,10 +4781,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4828,10 +4810,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4857,10 +4839,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4886,10 +4868,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4915,10 +4897,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -4944,10 +4926,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4973,10 +4955,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5002,10 +4984,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -5031,10 +5013,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
